--- a/Advising Information.xlsx
+++ b/Advising Information.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="85">
   <si>
     <t>Advising Summary</t>
   </si>
@@ -264,6 +264,21 @@
   </si>
   <si>
     <t>Status Table</t>
+  </si>
+  <si>
+    <t>Achievement Menu Error</t>
+  </si>
+  <si>
+    <t>Menu overlaps disabling controls for the game</t>
+  </si>
+  <si>
+    <t>Logo</t>
+  </si>
+  <si>
+    <t>Debug games / logo for the company and the game too</t>
+  </si>
+  <si>
+    <t>Diana hahaha</t>
   </si>
 </sst>
 </file>
@@ -612,20 +627,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -638,6 +641,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -648,9 +663,6 @@
   <dxfs count="20">
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -680,6 +692,39 @@
       </border>
     </dxf>
     <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -698,36 +743,6 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -750,6 +765,15 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -757,6 +781,14 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -767,6 +799,116 @@
           <color indexed="64"/>
         </top>
         <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
           <color indexed="64"/>
         </bottom>
       </border>
@@ -798,133 +940,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -939,25 +954,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A2:F25" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="18" tableBorderDxfId="19">
-  <autoFilter ref="A2:F25"/>
-  <sortState ref="A3:F25">
-    <sortCondition descending="1" ref="C2:C25"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A2:F27" totalsRowShown="0" headerRowDxfId="19" headerRowBorderDxfId="18" tableBorderDxfId="17">
+  <autoFilter ref="A2:F27"/>
+  <sortState ref="A3:F26">
+    <sortCondition descending="1" ref="C2:C26"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" name="Bugs" dataDxfId="17"/>
-    <tableColumn id="2" name="Description" dataDxfId="16"/>
-    <tableColumn id="3" name="Severity" dataDxfId="15"/>
-    <tableColumn id="4" name="Status" dataDxfId="14"/>
-    <tableColumn id="5" name="Covered by" dataDxfId="13"/>
-    <tableColumn id="6" name="Developers Note" dataDxfId="12"/>
+    <tableColumn id="1" name="Bugs" dataDxfId="16"/>
+    <tableColumn id="2" name="Description" dataDxfId="15"/>
+    <tableColumn id="3" name="Severity" dataDxfId="14"/>
+    <tableColumn id="4" name="Status" dataDxfId="13"/>
+    <tableColumn id="5" name="Covered by" dataDxfId="12"/>
+    <tableColumn id="6" name="Developers Note" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="H1:H5" totalsRowShown="0" headerRowBorderDxfId="9" tableBorderDxfId="10" totalsRowBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="H1:H5" totalsRowShown="0" headerRowBorderDxfId="10" tableBorderDxfId="9" totalsRowBorderDxfId="8">
   <autoFilter ref="H1:H5"/>
   <tableColumns count="1">
     <tableColumn id="1" name="Advising Info" dataDxfId="7"/>
@@ -967,11 +982,11 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="H8:I13" totalsRowShown="0" headerRowDxfId="3" dataDxfId="0" headerRowBorderDxfId="5" tableBorderDxfId="6" totalsRowBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="H8:I13" totalsRowShown="0" headerRowDxfId="6" dataDxfId="4" headerRowBorderDxfId="5" tableBorderDxfId="3" totalsRowBorderDxfId="2">
   <autoFilter ref="H8:I13"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Degree" dataDxfId="2"/>
-    <tableColumn id="2" name="Interpretation" dataDxfId="1"/>
+    <tableColumn id="1" name="Degree" dataDxfId="1"/>
+    <tableColumn id="2" name="Interpretation" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1251,10 +1266,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1271,14 +1286,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="23"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="29"/>
       <c r="G1" s="20"/>
       <c r="H1" s="12" t="s">
         <v>77</v>
@@ -1305,7 +1320,7 @@
         <v>22</v>
       </c>
       <c r="G2" s="17"/>
-      <c r="H2" s="24" t="s">
+      <c r="H2" s="21" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1325,7 +1340,7 @@
       <c r="E3" s="5"/>
       <c r="F3" s="6"/>
       <c r="G3" s="18"/>
-      <c r="H3" s="24" t="s">
+      <c r="H3" s="21" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1345,7 +1360,7 @@
       <c r="E4" s="3"/>
       <c r="F4" s="4"/>
       <c r="G4" s="18"/>
-      <c r="H4" s="24" t="s">
+      <c r="H4" s="21" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1367,22 +1382,22 @@
         <v>26</v>
       </c>
       <c r="G5" s="18"/>
-      <c r="H5" s="25" t="s">
+      <c r="H5" s="22" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="C6" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="4"/>
@@ -1390,10 +1405,10 @@
     </row>
     <row r="7" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C7" s="3">
         <v>4</v>
@@ -1404,17 +1419,17 @@
       <c r="E7" s="3"/>
       <c r="F7" s="4"/>
       <c r="G7" s="18"/>
-      <c r="H7" s="26" t="s">
+      <c r="H7" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="26"/>
-    </row>
-    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="I7" s="30"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C8" s="3">
         <v>4</v>
@@ -1432,38 +1447,38 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C9" s="3">
         <v>4</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="4"/>
       <c r="G9" s="18"/>
-      <c r="H9" s="27">
+      <c r="H9" s="23">
         <v>1</v>
       </c>
-      <c r="I9" s="28" t="s">
+      <c r="I9" s="24" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="C10" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>25</v>
@@ -1471,42 +1486,42 @@
       <c r="E10" s="3"/>
       <c r="F10" s="4"/>
       <c r="G10" s="18"/>
-      <c r="H10" s="27">
+      <c r="H10" s="23">
         <v>2</v>
       </c>
-      <c r="I10" s="28" t="s">
+      <c r="I10" s="24" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="C11" s="3">
         <v>3</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="4"/>
       <c r="G11" s="19"/>
-      <c r="H11" s="27">
+      <c r="H11" s="23">
         <v>3</v>
       </c>
-      <c r="I11" s="28" t="s">
+      <c r="I11" s="24" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C12" s="3">
         <v>3</v>
@@ -1517,19 +1532,19 @@
       <c r="E12" s="3"/>
       <c r="F12" s="4"/>
       <c r="G12" s="18"/>
-      <c r="H12" s="27">
+      <c r="H12" s="23">
         <v>4</v>
       </c>
-      <c r="I12" s="28" t="s">
+      <c r="I12" s="24" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C13" s="3">
         <v>3</v>
@@ -1540,19 +1555,19 @@
       <c r="E13" s="3"/>
       <c r="F13" s="4"/>
       <c r="G13" s="18"/>
-      <c r="H13" s="29">
+      <c r="H13" s="25">
         <v>5</v>
       </c>
-      <c r="I13" s="30" t="s">
+      <c r="I13" s="26" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C14" s="3">
         <v>3</v>
@@ -1564,12 +1579,12 @@
       <c r="F14" s="4"/>
       <c r="G14" s="18"/>
     </row>
-    <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C15" s="3">
         <v>3</v>
@@ -1585,17 +1600,17 @@
       </c>
       <c r="I15" s="31"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>75</v>
+    <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C16" s="7">
+        <v>74</v>
+      </c>
+      <c r="C16" s="3">
         <v>3</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="3" t="s">
         <v>29</v>
       </c>
       <c r="E16" s="3"/>
@@ -1608,18 +1623,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>28</v>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>75</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="3">
+        <v>76</v>
+      </c>
+      <c r="C17" s="7">
         <v>3</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>25</v>
+      <c r="D17" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="4"/>
@@ -1633,13 +1648,13 @@
     </row>
     <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="C18" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>25</v>
@@ -1656,23 +1671,19 @@
     </row>
     <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="C19" s="3">
         <v>2</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>46</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="4"/>
       <c r="G19" s="18"/>
       <c r="H19" t="s">
         <v>31</v>
@@ -1683,10 +1694,10 @@
     </row>
     <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C20" s="3">
         <v>2</v>
@@ -1694,16 +1705,20 @@
       <c r="D20" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="4"/>
+      <c r="E20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="G20" s="18"/>
     </row>
     <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C21" s="3">
         <v>2</v>
@@ -1715,48 +1730,46 @@
       <c r="F21" s="4"/>
       <c r="G21" s="18"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C22" s="3">
         <v>2</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="4"/>
       <c r="G22" s="18"/>
     </row>
-    <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="3">
+        <v>2</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="18"/>
+    </row>
+    <row r="24" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B24" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="C23" s="3">
-        <v>1</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G23" s="18"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>39</v>
       </c>
       <c r="C24" s="3">
         <v>1</v>
@@ -1766,26 +1779,63 @@
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="4" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="G24" s="18"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="C25" s="10">
         <v>1</v>
       </c>
       <c r="D25" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="10"/>
+      <c r="F25" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G25" s="18"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="10">
+        <v>1</v>
+      </c>
+      <c r="D26" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="E25" s="10"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="18"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="18"/>
+    </row>
+    <row r="27" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="10">
+        <v>1</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" s="10"/>
+      <c r="F27" s="9" t="s">
+        <v>84</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1793,7 +1843,17 @@
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="H15:I15"/>
   </mergeCells>
-  <conditionalFormatting sqref="C3:C25">
+  <conditionalFormatting sqref="C3:C27">
+    <cfRule type="iconSet" priority="2">
+      <iconSet iconSet="4TrafficLights" reverse="1">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26">
     <cfRule type="iconSet" priority="1">
       <iconSet iconSet="4TrafficLights" reverse="1">
         <cfvo type="percent" val="0"/>
